--- a/Time Complexity.xlsx
+++ b/Time Complexity.xlsx
@@ -2,20 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\SEM 3\Advance Java\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adiin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE3C0E7D-569E-4041-8A7E-5B482BB84EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FBC2907-4BF3-4186-8851-4AB2CF99F100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AE8AA96E-283A-4CAB-9DE9-D2F76851E3E2}"/>
+    <workbookView xWindow="8090" yWindow="0" windowWidth="11200" windowHeight="10170" activeTab="1" xr2:uid="{FBF441E7-5BAF-6346-937D-3F6CFB98060E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,39 +35,154 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="26">
+  <si>
+    <t>Insert</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>ArrayList</t>
+  </si>
+  <si>
+    <t>o(1)</t>
+  </si>
+  <si>
+    <t>o(n)</t>
+  </si>
+  <si>
+    <t>LinkedList</t>
+  </si>
   <si>
     <t>Array</t>
   </si>
   <si>
-    <t>Linked List</t>
-  </si>
-  <si>
-    <t>Array List</t>
+    <t>Set</t>
+  </si>
+  <si>
+    <t>HashMaps</t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>Queue</t>
+  </si>
+  <si>
+    <t>Trees</t>
+  </si>
+  <si>
+    <t>Graphs</t>
+  </si>
+  <si>
+    <t>Without index</t>
+  </si>
+  <si>
+    <t>With index</t>
+  </si>
+  <si>
+    <t>Access Element by index</t>
+  </si>
+  <si>
+    <t>Access Element by Value</t>
+  </si>
+  <si>
+    <t>Read by index</t>
+  </si>
+  <si>
+    <t>Insert in the Mid</t>
+  </si>
+  <si>
+    <t>Insert in the Tale</t>
+  </si>
+  <si>
+    <t>Delete from Mid</t>
+  </si>
+  <si>
+    <t>Delete from Tale</t>
+  </si>
+  <si>
+    <t>Read by value</t>
+  </si>
+  <si>
+    <t>Insert in the Head</t>
+  </si>
+  <si>
+    <t>Delete from Head</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -74,12 +190,130 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -108,39 +342,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -192,7 +426,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -303,13 +537,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -318,6 +545,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -382,95 +616,768 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FD0D5C7-1CCB-4866-A706-7EE07E99CD2B}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B40C9AF-4BF5-F94D-B1A5-443A59DB3DCD}">
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B1">
-        <v>1000</v>
-      </c>
-      <c r="C1">
-        <v>10000</v>
-      </c>
-      <c r="D1">
-        <v>100000</v>
-      </c>
-      <c r="E1">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="1" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>9700</v>
-      </c>
-      <c r="C2">
-        <v>87900</v>
-      </c>
-      <c r="D2">
-        <v>1479500</v>
-      </c>
-      <c r="E2">
-        <v>3821200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="E1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>76900</v>
-      </c>
-      <c r="C3">
-        <v>332300</v>
-      </c>
-      <c r="D3">
-        <v>2966800</v>
-      </c>
-      <c r="E3">
-        <v>6442700</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>82800</v>
-      </c>
-      <c r="C4">
-        <v>435900</v>
-      </c>
-      <c r="D4">
-        <v>3370000</v>
-      </c>
-      <c r="E4">
-        <v>1955200</v>
-      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D8F2587-E0B2-324E-BCED-8CC757542699}">
+  <dimension ref="A1:AG6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AA4" sqref="AA4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="31.5" defaultRowHeight="21" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="13.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="31.5" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="A1" s="16"/>
+      <c r="B1" s="16">
+        <v>1000</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16">
+        <v>10000</v>
+      </c>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="13">
+        <v>100000</v>
+      </c>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="14"/>
+      <c r="AE1" s="14"/>
+      <c r="AF1" s="14"/>
+      <c r="AG1" s="15"/>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="A2" s="16"/>
+      <c r="B2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="V2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="W2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="X2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG2" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="A3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="9">
+        <v>8100</v>
+      </c>
+      <c r="C3" s="9">
+        <v>52000</v>
+      </c>
+      <c r="D3" s="9">
+        <v>27800</v>
+      </c>
+      <c r="E3" s="9">
+        <v>6900</v>
+      </c>
+      <c r="F3" s="9">
+        <v>6200</v>
+      </c>
+      <c r="G3" s="9">
+        <v>8200</v>
+      </c>
+      <c r="H3" s="9">
+        <v>4100</v>
+      </c>
+      <c r="I3" s="9">
+        <v>5300</v>
+      </c>
+      <c r="J3" s="9">
+        <v>6000</v>
+      </c>
+      <c r="K3" s="9">
+        <v>1601900</v>
+      </c>
+      <c r="L3" s="9">
+        <v>70100</v>
+      </c>
+      <c r="M3" s="9">
+        <v>9100</v>
+      </c>
+      <c r="N3" s="9">
+        <v>4000</v>
+      </c>
+      <c r="O3" s="9">
+        <v>10300</v>
+      </c>
+      <c r="P3" s="9">
+        <v>22300</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>3000</v>
+      </c>
+      <c r="R3" s="11">
+        <v>5400</v>
+      </c>
+      <c r="S3" s="12">
+        <v>2662500</v>
+      </c>
+      <c r="T3" s="12">
+        <v>482300</v>
+      </c>
+      <c r="U3" s="12">
+        <v>44900</v>
+      </c>
+      <c r="V3" s="12">
+        <v>1700</v>
+      </c>
+      <c r="W3" s="12">
+        <v>55100</v>
+      </c>
+      <c r="X3" s="12">
+        <v>23300</v>
+      </c>
+      <c r="Y3" s="12">
+        <v>2700</v>
+      </c>
+      <c r="Z3" s="11">
+        <v>6000</v>
+      </c>
+      <c r="AA3" s="12">
+        <v>4439800</v>
+      </c>
+      <c r="AB3" s="12">
+        <v>4171200</v>
+      </c>
+      <c r="AC3" s="12">
+        <v>224700</v>
+      </c>
+      <c r="AD3" s="12">
+        <v>2700</v>
+      </c>
+      <c r="AE3" s="12">
+        <v>410900</v>
+      </c>
+      <c r="AF3" s="12">
+        <v>270000</v>
+      </c>
+      <c r="AG3" s="12">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="A4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="18">
+        <v>134800</v>
+      </c>
+      <c r="C4" s="17">
+        <v>289100</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="17">
+        <v>4800</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="17">
+        <v>22000</v>
+      </c>
+      <c r="J4" s="17">
+        <v>2398800</v>
+      </c>
+      <c r="K4" s="9">
+        <v>1220500</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="9">
+        <v>6300</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>15400</v>
+      </c>
+      <c r="R4" s="19">
+        <v>966100</v>
+      </c>
+      <c r="S4" s="12">
+        <v>2796700</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="U4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="V4" s="12">
+        <v>33300</v>
+      </c>
+      <c r="W4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="X4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y4" s="12">
+        <v>97500</v>
+      </c>
+      <c r="Z4" s="19">
+        <v>4610000</v>
+      </c>
+      <c r="AA4" s="12">
+        <v>19768300</v>
+      </c>
+      <c r="AB4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD4" s="12">
+        <v>900</v>
+      </c>
+      <c r="AE4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG4" s="12">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="A5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="9">
+        <v>21200</v>
+      </c>
+      <c r="C5" s="9">
+        <v>58000</v>
+      </c>
+      <c r="D5" s="9">
+        <v>15200</v>
+      </c>
+      <c r="E5" s="9">
+        <v>11500</v>
+      </c>
+      <c r="F5" s="9">
+        <v>6800</v>
+      </c>
+      <c r="G5" s="9">
+        <v>16400</v>
+      </c>
+      <c r="H5" s="9">
+        <v>16700</v>
+      </c>
+      <c r="I5" s="9">
+        <v>7700</v>
+      </c>
+      <c r="J5" s="9">
+        <v>62900</v>
+      </c>
+      <c r="K5" s="9">
+        <v>210500</v>
+      </c>
+      <c r="L5" s="9">
+        <v>3500</v>
+      </c>
+      <c r="M5" s="9">
+        <v>62800</v>
+      </c>
+      <c r="N5" s="9">
+        <v>700</v>
+      </c>
+      <c r="O5" s="9">
+        <v>1600</v>
+      </c>
+      <c r="P5" s="9">
+        <v>58100</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>1200</v>
+      </c>
+      <c r="R5" s="11">
+        <v>581600</v>
+      </c>
+      <c r="S5" s="12">
+        <v>1703000</v>
+      </c>
+      <c r="T5" s="12">
+        <v>4500</v>
+      </c>
+      <c r="U5" s="12">
+        <v>317100</v>
+      </c>
+      <c r="V5" s="12">
+        <v>500</v>
+      </c>
+      <c r="W5" s="12">
+        <v>1700</v>
+      </c>
+      <c r="X5" s="12">
+        <v>371200</v>
+      </c>
+      <c r="Y5" s="12">
+        <v>1500</v>
+      </c>
+      <c r="Z5" s="11">
+        <v>2235100</v>
+      </c>
+      <c r="AA5" s="12">
+        <v>4135700</v>
+      </c>
+      <c r="AB5" s="12">
+        <v>15000</v>
+      </c>
+      <c r="AC5" s="12">
+        <v>2298800</v>
+      </c>
+      <c r="AD5" s="12">
+        <v>2600</v>
+      </c>
+      <c r="AE5" s="12">
+        <v>3800</v>
+      </c>
+      <c r="AF5" s="12">
+        <v>3668400</v>
+      </c>
+      <c r="AG5" s="12">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="A6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="9">
+        <v>256900</v>
+      </c>
+      <c r="C6" s="9">
+        <v>7773700</v>
+      </c>
+      <c r="D6" s="9">
+        <v>946000</v>
+      </c>
+      <c r="E6" s="9">
+        <v>444500</v>
+      </c>
+      <c r="F6" s="9">
+        <v>57800</v>
+      </c>
+      <c r="G6" s="9">
+        <v>964700</v>
+      </c>
+      <c r="H6" s="9">
+        <v>412800</v>
+      </c>
+      <c r="I6" s="9">
+        <v>93500</v>
+      </c>
+      <c r="J6" s="9">
+        <v>535100</v>
+      </c>
+      <c r="K6" s="9">
+        <v>42660800</v>
+      </c>
+      <c r="L6" s="9">
+        <v>18732200</v>
+      </c>
+      <c r="M6" s="9">
+        <v>23165500</v>
+      </c>
+      <c r="N6" s="9">
+        <v>906900</v>
+      </c>
+      <c r="O6" s="9">
+        <v>40667900</v>
+      </c>
+      <c r="P6" s="9">
+        <v>20760200</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>81800</v>
+      </c>
+      <c r="R6" s="11">
+        <v>714300</v>
+      </c>
+      <c r="S6" s="12">
+        <v>4010890400</v>
+      </c>
+      <c r="T6" s="12">
+        <v>1446260400</v>
+      </c>
+      <c r="U6" s="12">
+        <v>1917199100</v>
+      </c>
+      <c r="V6" s="12">
+        <v>4588300</v>
+      </c>
+      <c r="W6" s="12">
+        <v>3762271500</v>
+      </c>
+      <c r="X6" s="12">
+        <v>1984515900</v>
+      </c>
+      <c r="Y6" s="12">
+        <v>300000</v>
+      </c>
+      <c r="Z6" s="11">
+        <v>290500</v>
+      </c>
+      <c r="AA6" s="20">
+        <v>19389600</v>
+      </c>
+      <c r="AB6" s="21">
+        <v>1115020000</v>
+      </c>
+      <c r="AC6" s="12">
+        <v>1454452400</v>
+      </c>
+      <c r="AD6" s="12">
+        <v>2644100</v>
+      </c>
+      <c r="AE6" s="12">
+        <v>2552997600</v>
+      </c>
+      <c r="AF6" s="12">
+        <v>832597000</v>
+      </c>
+      <c r="AG6" s="12">
+        <v>71000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="R1:Y1"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>